--- a/Projects/dss_system/Conf/case.xlsx
+++ b/Projects/dss_system/Conf/case.xlsx
@@ -4,17 +4,17 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="11190" windowHeight="12015"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="接口模式对接测试用例" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
   <si>
     <t>case_id</t>
   </si>
@@ -67,17 +67,16 @@
     <t>test</t>
   </si>
   <si>
-    <t>/externalservice/internal/sync_customer?appKey=yZ3woXnrNEbevZab&amp;timestamp=1618816349430&amp;sign=1964816190da30b10858aa7742f98994&amp;fromer=gyp</t>
-  </si>
-  <si>
-    <t>DssHeader</t>
+    <t>/externalservice/internal/sync_customer</t>
+  </si>
+  <si>
+    <t>skip</t>
   </si>
   <si>
     <t>post</t>
   </si>
   <si>
-    <t>{
-    "aggregationFlag":false,
+    <t>{    "aggregationFlag":false,
    "contactAddress":"广东省深圳市福田区福田街道金田路2026号能源大厦北塔楼9层",
     "contactMobilePhone":"13163742302",
     "contactName":"",
@@ -102,16 +101,59 @@
     <t>$.resultCode=1007;
 $.resultMsg=客户已经匹配ERP代码，不能同步到erp</t>
   </si>
+  <si>
+    <t>case_02</t>
+  </si>
+  <si>
+    <t>ERP客户建档</t>
+  </si>
+  <si>
+    <t>/externalservice/basic/add_or_modify_customer</t>
+  </si>
+  <si>
+    <t>{
+      "ERP客户建档": "客户建档测试数据",
+      "areaPointNum": 9,
+      "bankAccount": "3901330009000102729",
+      "bankName": "中国招商银行",
+      "basicCredits": 17463946,
+      "businessType": 200,
+      "contactAddress": "深圳市",
+      "contactMobilePhone": "13806655358",
+      "contactName": "郭宇鹏",      "contactTelephone": "65238081",
+      "createTime": "2017-05-24 09:04:39",
+      "customerCode": "",
+  "customerFullName": "深圳市云印技术纸业有限公司",      "customerService": "郭",      "customerShortName": "云印纸业",
+      "customerType": 100,      "externalCustomerCode": "550",
+      "faxNumber": "65238080",
+      "industry": 0,
+      "mnemonicCode": "NHBP",      "operationType": 1,
+      "payMethod": 0,
+      "periodNum": 60,
+      "periodType": 1,      "piecePointNum": 2,      "priceIncludeTax": 1,
+      "quantityRequirement": 0,
+      "remark": "测试项目",
+      "saleMan": "郭",
+      "statementDate": 25,
+      "transactionPointNum": 2,
+      "unifiedSocialCreditCode": "913100006762205722",
+      "updateTime": "2020-02-24 14:03:00"
+    }</t>
+  </si>
+  <si>
+    <t>$.resultCode=1000;
+$.resultMsg=操作成功</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -125,6 +167,89 @@
       <sz val="11"/>
       <name val="黑体"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -136,49 +261,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -187,53 +269,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -249,27 +293,25 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -286,79 +328,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -370,18 +496,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -394,79 +508,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -499,16 +541,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -547,7 +580,16 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -567,6 +609,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -581,17 +634,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -600,10 +642,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -612,137 +654,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -756,10 +798,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1109,18 +1154,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:N41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="14.5" customWidth="1"/>
     <col min="2" max="2" width="15.5" customWidth="1"/>
     <col min="3" max="3" width="19.5" customWidth="1"/>
-    <col min="4" max="4" width="40.375" customWidth="1"/>
+    <col min="4" max="4" width="46.375" customWidth="1"/>
     <col min="5" max="5" width="19.375" customWidth="1"/>
     <col min="6" max="6" width="39.125" customWidth="1"/>
     <col min="7" max="7" width="9.25" customWidth="1"/>
@@ -1190,12 +1235,10 @@
       <c r="D2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="F2" s="5" t="s">
+      <c r="E2" s="3" t="s">
         <v>18</v>
       </c>
+      <c r="F2" s="5"/>
       <c r="G2" s="3" t="b">
         <v>0</v>
       </c>
@@ -1213,15 +1256,655 @@
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
     </row>
+    <row r="3" ht="128" customHeight="1" spans="1:14">
+      <c r="A3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19" s="6"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20" s="6"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="A21" s="6"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="A22" s="6"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="6"/>
+    </row>
+    <row r="23" spans="1:14">
+      <c r="A23" s="6"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="6"/>
+    </row>
+    <row r="24" spans="1:14">
+      <c r="A24" s="6"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="6"/>
+      <c r="N24" s="6"/>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="A25" s="6"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="6"/>
+      <c r="N25" s="6"/>
+    </row>
+    <row r="26" spans="1:14">
+      <c r="A26" s="6"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="6"/>
+      <c r="N26" s="6"/>
+    </row>
+    <row r="27" spans="1:14">
+      <c r="A27" s="6"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="6"/>
+      <c r="M27" s="6"/>
+      <c r="N27" s="6"/>
+    </row>
+    <row r="28" spans="1:14">
+      <c r="A28" s="6"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="6"/>
+      <c r="L28" s="6"/>
+      <c r="M28" s="6"/>
+      <c r="N28" s="6"/>
+    </row>
+    <row r="29" spans="1:14">
+      <c r="A29" s="6"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="6"/>
+      <c r="M29" s="6"/>
+      <c r="N29" s="6"/>
+    </row>
+    <row r="30" spans="1:14">
+      <c r="A30" s="6"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="6"/>
+      <c r="L30" s="6"/>
+      <c r="M30" s="6"/>
+      <c r="N30" s="6"/>
+    </row>
+    <row r="31" spans="1:14">
+      <c r="A31" s="6"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="6"/>
+      <c r="K31" s="6"/>
+      <c r="L31" s="6"/>
+      <c r="M31" s="6"/>
+      <c r="N31" s="6"/>
+    </row>
+    <row r="32" spans="1:14">
+      <c r="A32" s="6"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="6"/>
+      <c r="K32" s="6"/>
+      <c r="L32" s="6"/>
+      <c r="M32" s="6"/>
+      <c r="N32" s="6"/>
+    </row>
+    <row r="33" spans="1:14">
+      <c r="A33" s="6"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="6"/>
+      <c r="K33" s="6"/>
+      <c r="L33" s="6"/>
+      <c r="M33" s="6"/>
+      <c r="N33" s="6"/>
+    </row>
+    <row r="34" spans="1:14">
+      <c r="A34" s="6"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6"/>
+      <c r="J34" s="6"/>
+      <c r="K34" s="6"/>
+      <c r="L34" s="6"/>
+      <c r="M34" s="6"/>
+      <c r="N34" s="6"/>
+    </row>
+    <row r="35" spans="1:14">
+      <c r="A35" s="6"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6"/>
+      <c r="J35" s="6"/>
+      <c r="K35" s="6"/>
+      <c r="L35" s="6"/>
+      <c r="M35" s="6"/>
+      <c r="N35" s="6"/>
+    </row>
+    <row r="36" spans="1:14">
+      <c r="A36" s="6"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="6"/>
+      <c r="J36" s="6"/>
+      <c r="K36" s="6"/>
+      <c r="L36" s="6"/>
+      <c r="M36" s="6"/>
+      <c r="N36" s="6"/>
+    </row>
+    <row r="37" spans="1:14">
+      <c r="A37" s="6"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
+      <c r="J37" s="6"/>
+      <c r="K37" s="6"/>
+      <c r="L37" s="6"/>
+      <c r="M37" s="6"/>
+      <c r="N37" s="6"/>
+    </row>
+    <row r="38" spans="1:14">
+      <c r="A38" s="6"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="6"/>
+      <c r="J38" s="6"/>
+      <c r="K38" s="6"/>
+      <c r="L38" s="6"/>
+      <c r="M38" s="6"/>
+      <c r="N38" s="6"/>
+    </row>
+    <row r="39" spans="1:14">
+      <c r="A39" s="6"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="6"/>
+      <c r="J39" s="6"/>
+      <c r="K39" s="6"/>
+      <c r="L39" s="6"/>
+      <c r="M39" s="6"/>
+      <c r="N39" s="6"/>
+    </row>
+    <row r="40" spans="1:14">
+      <c r="A40" s="6"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="6"/>
+      <c r="I40" s="6"/>
+      <c r="J40" s="6"/>
+      <c r="K40" s="6"/>
+      <c r="L40" s="6"/>
+      <c r="M40" s="6"/>
+      <c r="N40" s="6"/>
+    </row>
+    <row r="41" spans="1:14">
+      <c r="A41" s="6"/>
+      <c r="B41" s="6"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="6"/>
+      <c r="I41" s="6"/>
+      <c r="J41" s="6"/>
+      <c r="K41" s="6"/>
+      <c r="L41" s="6"/>
+      <c r="M41" s="6"/>
+      <c r="N41" s="6"/>
+    </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2">
-      <formula1>"True,False"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2 E3"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2 G3">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2 H3">
       <formula1>"get,post"</formula1>
     </dataValidation>
   </dataValidations>
